--- a/biology/Botanique/Retispatha/Retispatha.xlsx
+++ b/biology/Botanique/Retispatha/Retispatha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Retispatha est un genre de la famille des Arecaceae (Palmiers) comprenant une seule espèce Retispatha dumetosa native de l'île de Bornéo dans le sud-est asiatique.Ce genre est totalement inclus dans genre Calamus[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retispatha est un genre de la famille des Arecaceae (Palmiers) comprenant une seule espèce Retispatha dumetosa native de l'île de Bornéo dans le sud-est asiatique.Ce genre est totalement inclus dans genre Calamus,.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille : Calamoideae
 Tribu : Calameae
 Sous-tribu : Calaminae
 Cette sous-tribu ne comprend actuellement qu'un seul genre :  Calamus 
-[1].
+.
 Calamus, ayant été élargi pour inclure Retispatha, Daemonorops, Pogonotium et  Ceratolobus (W.J.Baker &amp; al, 2015; Henderson &amp; Floda, 2015).
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Retispatha dumetosa (synonyme de Calamus dumetosus 	 (J.Dransf.) A.J.Hend. &amp; Floda)</t>
         </is>
